--- a/componment_info_quiry/source/常规用贴片清单.xlsx
+++ b/componment_info_quiry/source/常规用贴片清单.xlsx
@@ -48,792 +48,793 @@
     <t>片状电阻;1/10W-100KΩ±1%-0603;RoHS</t>
   </si>
   <si>
+    <t>片状电阻;1/10W-1MΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00025</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-200Ω±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00026</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-2KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00028</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-200KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00033</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-2.7KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00034</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-27KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00037</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-3KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00038</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-30KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00040</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-330Ω±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00046</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-3.9KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00050</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W;470Ω;±1%;0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00051</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-4.7KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00052</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-47KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00055</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-510Ω±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00056</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-5.1KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00057</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-51KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00060</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-5.6kΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00068</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-7.5KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00113</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W-10Ω±1%-0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00149</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W-33Ω±1%-0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00150</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W;330Ω;±1%;0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00151</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W-3.3kΩ±1%-0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00170</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W;5.6kΩ;±1%;0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00190</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/4W-100Ω±5%-1206;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00195</t>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;22Ω;±5%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00282</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-2.1KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">片状电阻;1/10W-47Ω±1%-0603;RoHS </t>
+  </si>
+  <si>
+    <t>20001-00305</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-4.02kΩ±1%-0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-00306</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-470kΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00398</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W;1.3KΩ±1%;0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00455</t>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;1kΩ±1%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00463</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/2W;7.5Ω;±5%;1210;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00465</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/8W;33KΩ±1%;0805;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00563</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;20Ω;1%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>20001-00644</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W;12K;1%;0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-00780</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;300Ω;±1%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>20001-01009</t>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;47Ω;±1%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>片状电容;25V;1uF;10%;X7R;0603;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00049</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;100pF±5%-50V-0603-NPO;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00041</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;50V;1nF;±10%;X7R;0603;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00050</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;1nF±5%-50V-0603-NPO;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00042</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;10nF±10%-50V-0603-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00043</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;100nF±10%-50V-0603-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;2.2nF±5%-50V-0805-NPO;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00045</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;50 VDC;2.2 nF;±10%;X7R;0603;RoHS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21003-00046</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;330pF±10%-50V-0603-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00183</t>
+  </si>
+  <si>
+    <t>片状电容;50V;22pF;-55℃～125℃;NPO;0603;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00239</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;10V;10uF;±10%;X7R;0805;汽车级;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00081</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;50VDC;1uF;±10%;X7R;0805;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00004</t>
+  </si>
+  <si>
+    <t>片状电容;2.2uF±10%-16V-0805-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>21003-00114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">片状电容器;50V;33pF±5%;NPO;0603;ROHS </t>
+  </si>
+  <si>
+    <t>21003-00300</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电容;50V;220pF;±5%;NPO;0603;RoHS</t>
+  </si>
+  <si>
+    <t>贴片PNP三极管;40V/0.6A/225mW/SOT-23;RoHS</t>
+  </si>
+  <si>
+    <t>22001-00010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关二极管;100V/0.5W/SOD-80(SMD),RoHS</t>
+  </si>
+  <si>
+    <t>稳压二极管;5.1V;500mW;5%;DO-35;RoHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三极管;NPN;40V;0.225W;SOT-23;RoHS </t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-10Ω±1%-0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W;0.0;±1%;0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22006-00007</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管;红色;9@20mA;表贴;RoHS</t>
+  </si>
+  <si>
+    <t>22006-00039</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管;绿色;50cmd;贴片;RoHS</t>
+  </si>
+  <si>
+    <t>22001-00008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22001-00009</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22001-00032</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整流二极管;共阳双开关管;70V;200mA;1.25V;SOT-23;RoHS</t>
+  </si>
+  <si>
+    <t>开关二极管;70V/0.2A/共阴/SOT-23;RoHS</t>
+  </si>
+  <si>
+    <t>开关二极管;100V;0.2A;1.0V@10mA;DO-35;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整流二极管;100V;215mA;1.75;SOT-23;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22007-00013</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22002-00107</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选品牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjit/on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjit/vishay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fairchild</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diodes/on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXP/on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjit/on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22007-00014</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMBT4403/MMBT4403LT1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMBT4401/MMBT4401LT1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL4148/LL4148</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22001-00166</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4148</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N5231B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAW56/BAW56LT1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAV99/BAV99LT1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS70C/BAV70LT1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-HUF35A-TRB/LTST-C170KRKT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佰鸿/台湾光宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-HGF35A-AV-TRB/LTST-C170KGKT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0710RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-00004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1MΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国巨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风华高科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603CG221J500NT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603JRNPO9BN330 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0805KKX7R7BB225</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0805KKX7R9BB105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGA4J3X7S1A106KT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN220</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB331</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0805JKNPO9BN222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21003-00055 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1210JR-077R5L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL1206FR-0747RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1206FR-07300RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1206FR-071KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1206JR-0722RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100Ω±J-1206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚声</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1206FR-0720RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-0733KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-071K3L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-075K6L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-073K3L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07330RL </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-0733RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0805FR-0710RL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-00018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W;15kΩ;±1%;0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-00027</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片状电阻;1/10W;20kΩ;±1%;0603;RoHS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0712KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-07470KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-074K02L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>47Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-072K1L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>51KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>510Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">47KΩ±F-0603 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>470Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>330Ω±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2KΩ±F-0603</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>20001-00007</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-1MΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00025</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-200Ω±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00026</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-2KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00028</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-200KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00033</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-2.7KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00034</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-27KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00037</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-3KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00038</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-30KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00040</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-330Ω±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00046</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-3.9KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00050</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;470Ω;±1%;0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-4.7KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00052</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-47KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00055</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-510Ω±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00056</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-5.1KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00057</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-51KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00060</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-5.6kΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00068</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-7.5KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00113</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W-10Ω±1%-0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00149</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W-33Ω±1%-0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00150</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W;330Ω;±1%;0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00151</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W-3.3kΩ±1%-0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00170</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W;5.6kΩ;±1%;0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00190</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/4W-100Ω±5%-1206;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00195</t>
-  </si>
-  <si>
-    <t>片状电阻;1/4W;22Ω;±5%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00282</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-2.1KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">片状电阻;1/10W-47Ω±1%-0603;RoHS </t>
-  </si>
-  <si>
-    <t>20001-00305</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-4.02kΩ±1%-0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-00306</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-470kΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00398</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W;1.3KΩ±1%;0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00455</t>
-  </si>
-  <si>
-    <t>片状电阻;1/4W;1kΩ±1%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00463</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/2W;7.5Ω;±5%;1210;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00465</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/8W;33KΩ±1%;0805;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00563</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/4W;20Ω;1%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>20001-00644</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;12K;1%;0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-00780</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/4W;300Ω;±1%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>20001-01009</t>
-  </si>
-  <si>
-    <t>片状电阻;1/4W;47Ω;±1%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>片状电容;25V;1uF;10%;X7R;0603;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;100pF±5%-50V-0603-NPO;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00041</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;50V;1nF;±10%;X7R;0603;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00050</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;1nF±5%-50V-0603-NPO;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00042</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;10nF±10%-50V-0603-X7R;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00043</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;100nF±10%-50V-0603-X7R;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;2.2nF±5%-50V-0805-NPO;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00045</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;50 VDC;2.2 nF;±10%;X7R;0603;RoHS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21003-00046</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;330pF±10%-50V-0603-X7R;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00183</t>
-  </si>
-  <si>
-    <t>片状电容;50V;22pF;-55℃～125℃;NPO;0603;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00239</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;10V;10uF;±10%;X7R;0805;汽车级;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00081</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;50VDC;1uF;±10%;X7R;0805;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00004</t>
-  </si>
-  <si>
-    <t>片状电容;2.2uF±10%-16V-0805-X7R;RoHS</t>
-  </si>
-  <si>
-    <t>21003-00114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">片状电容器;50V;33pF±5%;NPO;0603;ROHS </t>
-  </si>
-  <si>
-    <t>21003-00300</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电容;50V;220pF;±5%;NPO;0603;RoHS</t>
-  </si>
-  <si>
-    <t>贴片PNP三极管;40V/0.6A/225mW/SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>22001-00010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关二极管;100V/0.5W/SOD-80(SMD),RoHS</t>
-  </si>
-  <si>
-    <t>稳压二极管;5.1V;500mW;5%;DO-35;RoHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三极管;NPN;40V;0.225W;SOT-23;RoHS </t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-10Ω±1%-0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;0.0;±1%;0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22006-00007</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光二极管;红色;9@20mA;表贴;RoHS</t>
-  </si>
-  <si>
-    <t>22006-00039</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光二极管;绿色;50cmd;贴片;RoHS</t>
-  </si>
-  <si>
-    <t>22001-00008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22001-00009</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22001-00032</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>整流二极管;共阳双开关管;70V;200mA;1.25V;SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>开关二极管;70V/0.2A/共阴/SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>开关二极管;100V;0.2A;1.0V@10mA;DO-35;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>整流二极管;100V;215mA;1.75;SOT-23;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22007-00013</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22002-00107</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优选品牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panjit/on</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panjit/vishay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fairchild</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panjit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>diodes/on</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXP/on</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panjit/on</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22007-00014</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMBT4403/MMBT4403LT1G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMBT4401/MMBT4401LT1G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LL4148/LL4148</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22001-00166</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4148</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N5231B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAW56/BAW56LT1G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAV99/BAV99LT1G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAS70C/BAV70LT1G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-HUF35A-TRB/LTST-C170KRKT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佰鸿/台湾光宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-HGF35A-AV-TRB/LTST-C170KGKT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-0710RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-00004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1MΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国巨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风华高科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603CG221J500NT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN330 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805KKX7R7BB225</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805KKX7R9BB105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGA4J3X7S1A106KT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603JRNPO9BN220</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB331</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805JKNPO9BN222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603JRNPO9BN102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603JRNPO9BN101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">21003-00055 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1210JR-077R5L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL1206FR-0747RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1206FR-07300RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1206FR-071KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1206JR-0722RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100Ω±J-1206</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚声</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1206FR-0720RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-0733KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-071K3L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-075K6L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-073K3L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-07330RL </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-0733RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-0710RL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-00018</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;15kΩ;±1%;0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-00027</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;20kΩ;±1%;0603;RoHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-0712KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-07470KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-074K02L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>47Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-072K1L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>51KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-075K1L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>510Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">47KΩ±F-0603 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>470Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>330Ω±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.7KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2KΩ±F-0603</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part Number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1341,7 @@
   <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1354,16 +1355,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="13">
@@ -1371,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="13">
@@ -1385,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="13">
@@ -1402,24 +1403,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="13">
@@ -1430,10 +1431,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="13">
@@ -1444,906 +1445,906 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C23" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="C35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="C36" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C38" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C42" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="D47" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="C48" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="C49" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="C50" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="C51" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="C52" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>95</v>
-      </c>
       <c r="C53" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="C54" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="C55" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="C56" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="C57" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C58" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>107</v>
-      </c>
       <c r="C59" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>109</v>
-      </c>
       <c r="C60" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="7" customFormat="1" ht="13">
       <c r="A61" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="C61" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="D62" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C64" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="D65" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="C70" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="C71" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4">
